--- a/Course_Requirements/Activity Logs&Task Summaries/Jesse/Task SummaryWk2.xlsx
+++ b/Course_Requirements/Activity Logs&Task Summaries/Jesse/Task SummaryWk2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uni\2019\S2-FINAL!!\CSC3600-ICT Professional Project\A3Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\GitHub\CSC3600-ICT-Professional-Project\Course_Requirements\Activity Logs&amp;Task Summaries\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EAA8D8-741D-455A-A174-6A7795A7B65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F38EEBE-2678-4058-9C36-CF35C6BBCEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
+    <workbookView xWindow="42465" yWindow="75" windowWidth="14565" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK SUMMARY SHEET" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Task Summary Sheet</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>• "Stage" and "Task" should match those specified in the WBS in project plan</t>
+  </si>
+  <si>
+    <t>Jesse Hare</t>
+  </si>
+  <si>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Write product specification for searcher program</t>
+  </si>
+  <si>
+    <t>Prepare Project Plan for client, work on introduction</t>
+  </si>
+  <si>
+    <t>`8</t>
   </si>
 </sst>
 </file>
@@ -121,15 +136,18 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -140,6 +158,7 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -332,7 +351,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -669,7 +688,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -686,11 +705,15 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="H1" s="2"/>
     </row>
@@ -712,17 +735,33 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -798,7 +837,7 @@
       </c>
       <c r="D14" s="18">
         <f>SUM(D3:D13)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
